--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Crlf2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.979606625763367</v>
+        <v>0.5078013333333333</v>
       </c>
       <c r="H2">
-        <v>0.979606625763367</v>
+        <v>1.523404</v>
       </c>
       <c r="I2">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357072</v>
       </c>
       <c r="J2">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.82100968756721</v>
+        <v>5.179207666666667</v>
       </c>
       <c r="N2">
-        <v>4.82100968756721</v>
+        <v>15.537623</v>
       </c>
       <c r="O2">
-        <v>0.2469559906345772</v>
+        <v>0.2482357269660917</v>
       </c>
       <c r="P2">
-        <v>0.2469559906345772</v>
+        <v>0.2482357269660917</v>
       </c>
       <c r="Q2">
-        <v>4.722693032810219</v>
+        <v>2.630008558743556</v>
       </c>
       <c r="R2">
-        <v>4.722693032810219</v>
+        <v>23.670077028692</v>
       </c>
       <c r="S2">
-        <v>0.08635970096368971</v>
+        <v>0.03414754193778854</v>
       </c>
       <c r="T2">
-        <v>0.08635970096368971</v>
+        <v>0.03414754193778855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.979606625763367</v>
+        <v>0.5078013333333333</v>
       </c>
       <c r="H3">
-        <v>0.979606625763367</v>
+        <v>1.523404</v>
       </c>
       <c r="I3">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357072</v>
       </c>
       <c r="J3">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.17761559663821</v>
+        <v>4.184307</v>
       </c>
       <c r="N3">
-        <v>4.17761559663821</v>
+        <v>12.552921</v>
       </c>
       <c r="O3">
-        <v>0.2139981591032359</v>
+        <v>0.2005508480919455</v>
       </c>
       <c r="P3">
-        <v>0.2139981591032359</v>
+        <v>0.2005508480919455</v>
       </c>
       <c r="Q3">
-        <v>4.092419918359172</v>
+        <v>2.124796673676</v>
       </c>
       <c r="R3">
-        <v>4.092419918359172</v>
+        <v>19.123170063084</v>
       </c>
       <c r="S3">
-        <v>0.07483445523814711</v>
+        <v>0.02758796479289314</v>
       </c>
       <c r="T3">
-        <v>0.07483445523814711</v>
+        <v>0.02758796479289314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.979606625763367</v>
+        <v>0.5078013333333333</v>
       </c>
       <c r="H4">
-        <v>0.979606625763367</v>
+        <v>1.523404</v>
       </c>
       <c r="I4">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357072</v>
       </c>
       <c r="J4">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.8963298553602</v>
+        <v>10.70673666666667</v>
       </c>
       <c r="N4">
-        <v>9.8963298553602</v>
+        <v>32.12021</v>
       </c>
       <c r="O4">
-        <v>0.5069390234538806</v>
+        <v>0.513166246835409</v>
       </c>
       <c r="P4">
-        <v>0.5069390234538806</v>
+        <v>0.513166246835409</v>
       </c>
       <c r="Q4">
-        <v>9.694510297050675</v>
+        <v>5.436895154982222</v>
       </c>
       <c r="R4">
-        <v>9.694510297050675</v>
+        <v>48.93205639484</v>
       </c>
       <c r="S4">
-        <v>0.1772749159063013</v>
+        <v>0.07059163541460461</v>
       </c>
       <c r="T4">
-        <v>0.1772749159063013</v>
+        <v>0.07059163541460463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.979606625763367</v>
+        <v>0.5078013333333333</v>
       </c>
       <c r="H5">
-        <v>0.979606625763367</v>
+        <v>1.523404</v>
       </c>
       <c r="I5">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357072</v>
       </c>
       <c r="J5">
-        <v>0.3496967242696974</v>
+        <v>0.1375609480357073</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.626781001271305</v>
+        <v>0.7938190000000001</v>
       </c>
       <c r="N5">
-        <v>0.626781001271305</v>
+        <v>2.381457</v>
       </c>
       <c r="O5">
-        <v>0.0321068268083063</v>
+        <v>0.03804717810655387</v>
       </c>
       <c r="P5">
-        <v>0.0321068268083063</v>
+        <v>0.03804717810655387</v>
       </c>
       <c r="Q5">
-        <v>0.6139988217479677</v>
+        <v>0.4031023466253333</v>
       </c>
       <c r="R5">
-        <v>0.6139988217479677</v>
+        <v>3.627921119628</v>
       </c>
       <c r="S5">
-        <v>0.01122765216155922</v>
+        <v>0.005233805890420955</v>
       </c>
       <c r="T5">
-        <v>0.01122765216155922</v>
+        <v>0.005233805890420956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.5566844489321</v>
+        <v>1.159282</v>
       </c>
       <c r="H6">
-        <v>1.5566844489321</v>
+        <v>3.477846</v>
       </c>
       <c r="I6">
-        <v>0.5557000516293276</v>
+        <v>0.3140439390222109</v>
       </c>
       <c r="J6">
-        <v>0.5557000516293276</v>
+        <v>0.314043939022211</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.82100968756721</v>
+        <v>5.179207666666667</v>
       </c>
       <c r="N6">
-        <v>4.82100968756721</v>
+        <v>15.537623</v>
       </c>
       <c r="O6">
-        <v>0.2469559906345772</v>
+        <v>0.2482357269660917</v>
       </c>
       <c r="P6">
-        <v>0.2469559906345772</v>
+        <v>0.2482357269660917</v>
       </c>
       <c r="Q6">
-        <v>7.504790808786878</v>
+        <v>6.004162222228667</v>
       </c>
       <c r="R6">
-        <v>7.504790808786878</v>
+        <v>54.037460000058</v>
       </c>
       <c r="S6">
-        <v>0.1372334567458063</v>
+        <v>0.07795692550247349</v>
       </c>
       <c r="T6">
-        <v>0.1372334567458063</v>
+        <v>0.07795692550247352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5566844489321</v>
+        <v>1.159282</v>
       </c>
       <c r="H7">
-        <v>1.5566844489321</v>
+        <v>3.477846</v>
       </c>
       <c r="I7">
-        <v>0.5557000516293276</v>
+        <v>0.3140439390222109</v>
       </c>
       <c r="J7">
-        <v>0.5557000516293276</v>
+        <v>0.314043939022211</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.17761559663821</v>
+        <v>4.184307</v>
       </c>
       <c r="N7">
-        <v>4.17761559663821</v>
+        <v>12.552921</v>
       </c>
       <c r="O7">
-        <v>0.2139981591032359</v>
+        <v>0.2005508480919455</v>
       </c>
       <c r="P7">
-        <v>0.2139981591032359</v>
+        <v>0.2005508480919455</v>
       </c>
       <c r="Q7">
-        <v>6.503229232902898</v>
+        <v>4.850791787574</v>
       </c>
       <c r="R7">
-        <v>6.503229232902898</v>
+        <v>43.657126088166</v>
       </c>
       <c r="S7">
-        <v>0.1189187880622492</v>
+        <v>0.06298177830903963</v>
       </c>
       <c r="T7">
-        <v>0.1189187880622492</v>
+        <v>0.06298177830903964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5566844489321</v>
+        <v>1.159282</v>
       </c>
       <c r="H8">
-        <v>1.5566844489321</v>
+        <v>3.477846</v>
       </c>
       <c r="I8">
-        <v>0.5557000516293276</v>
+        <v>0.3140439390222109</v>
       </c>
       <c r="J8">
-        <v>0.5557000516293276</v>
+        <v>0.314043939022211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.8963298553602</v>
+        <v>10.70673666666667</v>
       </c>
       <c r="N8">
-        <v>9.8963298553602</v>
+        <v>32.12021</v>
       </c>
       <c r="O8">
-        <v>0.5069390234538806</v>
+        <v>0.513166246835409</v>
       </c>
       <c r="P8">
-        <v>0.5069390234538806</v>
+        <v>0.513166246835409</v>
       </c>
       <c r="Q8">
-        <v>15.40546278734168</v>
+        <v>12.41212709640667</v>
       </c>
       <c r="R8">
-        <v>15.40546278734168</v>
+        <v>111.70914386766</v>
       </c>
       <c r="S8">
-        <v>0.2817060415062423</v>
+        <v>0.161156749529436</v>
       </c>
       <c r="T8">
-        <v>0.2817060415062423</v>
+        <v>0.1611567495294361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5566844489321</v>
+        <v>1.159282</v>
       </c>
       <c r="H9">
-        <v>1.5566844489321</v>
+        <v>3.477846</v>
       </c>
       <c r="I9">
-        <v>0.5557000516293276</v>
+        <v>0.3140439390222109</v>
       </c>
       <c r="J9">
-        <v>0.5557000516293276</v>
+        <v>0.314043939022211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.626781001271305</v>
+        <v>0.7938190000000001</v>
       </c>
       <c r="N9">
-        <v>0.626781001271305</v>
+        <v>2.381457</v>
       </c>
       <c r="O9">
-        <v>0.0321068268083063</v>
+        <v>0.03804717810655387</v>
       </c>
       <c r="P9">
-        <v>0.0321068268083063</v>
+        <v>0.03804717810655387</v>
       </c>
       <c r="Q9">
-        <v>0.9757002375651312</v>
+        <v>0.920260077958</v>
       </c>
       <c r="R9">
-        <v>0.9757002375651312</v>
+        <v>8.282340701622001</v>
       </c>
       <c r="S9">
-        <v>0.01784176531502969</v>
+        <v>0.0119484856812618</v>
       </c>
       <c r="T9">
-        <v>0.01784176531502969</v>
+        <v>0.01194848568126181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.265012334163069</v>
+        <v>1.601072333333333</v>
       </c>
       <c r="H10">
-        <v>0.265012334163069</v>
+        <v>4.803217</v>
       </c>
       <c r="I10">
-        <v>0.09460322410097489</v>
+        <v>0.433722823454071</v>
       </c>
       <c r="J10">
-        <v>0.09460322410097489</v>
+        <v>0.4337228234540711</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.82100968756721</v>
+        <v>5.179207666666667</v>
       </c>
       <c r="N10">
-        <v>4.82100968756721</v>
+        <v>15.537623</v>
       </c>
       <c r="O10">
-        <v>0.2469559906345772</v>
+        <v>0.2482357269660917</v>
       </c>
       <c r="P10">
-        <v>0.2469559906345772</v>
+        <v>0.2482357269660917</v>
       </c>
       <c r="Q10">
-        <v>1.277627030324955</v>
+        <v>8.292286103687889</v>
       </c>
       <c r="R10">
-        <v>1.277627030324955</v>
+        <v>74.630574933191</v>
       </c>
       <c r="S10">
-        <v>0.02336283292508116</v>
+        <v>0.1076655003819072</v>
       </c>
       <c r="T10">
-        <v>0.02336283292508116</v>
+        <v>0.1076655003819072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.265012334163069</v>
+        <v>1.601072333333333</v>
       </c>
       <c r="H11">
-        <v>0.265012334163069</v>
+        <v>4.803217</v>
       </c>
       <c r="I11">
-        <v>0.09460322410097489</v>
+        <v>0.433722823454071</v>
       </c>
       <c r="J11">
-        <v>0.09460322410097489</v>
+        <v>0.4337228234540711</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.17761559663821</v>
+        <v>4.184307</v>
       </c>
       <c r="N11">
-        <v>4.17761559663821</v>
+        <v>12.552921</v>
       </c>
       <c r="O11">
-        <v>0.2139981591032359</v>
+        <v>0.2005508480919455</v>
       </c>
       <c r="P11">
-        <v>0.2139981591032359</v>
+        <v>0.2005508480919455</v>
       </c>
       <c r="Q11">
-        <v>1.107119660501134</v>
+        <v>6.699378171873001</v>
       </c>
       <c r="R11">
-        <v>1.107119660501134</v>
+        <v>60.294403546857</v>
       </c>
       <c r="S11">
-        <v>0.02024491580283951</v>
+        <v>0.08698348008054711</v>
       </c>
       <c r="T11">
-        <v>0.02024491580283951</v>
+        <v>0.08698348008054711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.265012334163069</v>
+        <v>1.601072333333333</v>
       </c>
       <c r="H12">
-        <v>0.265012334163069</v>
+        <v>4.803217</v>
       </c>
       <c r="I12">
-        <v>0.09460322410097489</v>
+        <v>0.433722823454071</v>
       </c>
       <c r="J12">
-        <v>0.09460322410097489</v>
+        <v>0.4337228234540711</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.8963298553602</v>
+        <v>10.70673666666667</v>
       </c>
       <c r="N12">
-        <v>9.8963298553602</v>
+        <v>32.12021</v>
       </c>
       <c r="O12">
-        <v>0.5069390234538806</v>
+        <v>0.513166246835409</v>
       </c>
       <c r="P12">
-        <v>0.5069390234538806</v>
+        <v>0.513166246835409</v>
       </c>
       <c r="Q12">
-        <v>2.622649474616674</v>
+        <v>17.14225985728556</v>
       </c>
       <c r="R12">
-        <v>2.622649474616674</v>
+        <v>154.28033871557</v>
       </c>
       <c r="S12">
-        <v>0.04795806604133684</v>
+        <v>0.2225719134787824</v>
       </c>
       <c r="T12">
-        <v>0.04795806604133684</v>
+        <v>0.2225719134787824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.601072333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.803217</v>
+      </c>
+      <c r="I13">
+        <v>0.433722823454071</v>
+      </c>
+      <c r="J13">
+        <v>0.4337228234540711</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7938190000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.381457</v>
+      </c>
+      <c r="O13">
+        <v>0.03804717810655387</v>
+      </c>
+      <c r="P13">
+        <v>0.03804717810655387</v>
+      </c>
+      <c r="Q13">
+        <v>1.270961638574333</v>
+      </c>
+      <c r="R13">
+        <v>11.438654747169</v>
+      </c>
+      <c r="S13">
+        <v>0.01650192951283446</v>
+      </c>
+      <c r="T13">
+        <v>0.01650192951283446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4233086666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.269926</v>
+      </c>
+      <c r="I14">
+        <v>0.1146722894880107</v>
+      </c>
+      <c r="J14">
+        <v>0.1146722894880108</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.179207666666667</v>
+      </c>
+      <c r="N14">
+        <v>15.537623</v>
+      </c>
+      <c r="O14">
+        <v>0.2482357269660917</v>
+      </c>
+      <c r="P14">
+        <v>0.2482357269660917</v>
+      </c>
+      <c r="Q14">
+        <v>2.192403491766444</v>
+      </c>
+      <c r="R14">
+        <v>19.731631425898</v>
+      </c>
+      <c r="S14">
+        <v>0.02846575914392246</v>
+      </c>
+      <c r="T14">
+        <v>0.02846575914392246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4233086666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.269926</v>
+      </c>
+      <c r="I15">
+        <v>0.1146722894880107</v>
+      </c>
+      <c r="J15">
+        <v>0.1146722894880108</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.184307</v>
+      </c>
+      <c r="N15">
+        <v>12.552921</v>
+      </c>
+      <c r="O15">
+        <v>0.2005508480919455</v>
+      </c>
+      <c r="P15">
+        <v>0.2005508480919455</v>
+      </c>
+      <c r="Q15">
+        <v>1.771253417094</v>
+      </c>
+      <c r="R15">
+        <v>15.941280753846</v>
+      </c>
+      <c r="S15">
+        <v>0.02299762490946565</v>
+      </c>
+      <c r="T15">
+        <v>0.02299762490946565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.265012334163069</v>
-      </c>
-      <c r="H13">
-        <v>0.265012334163069</v>
-      </c>
-      <c r="I13">
-        <v>0.09460322410097489</v>
-      </c>
-      <c r="J13">
-        <v>0.09460322410097489</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.626781001271305</v>
-      </c>
-      <c r="N13">
-        <v>0.626781001271305</v>
-      </c>
-      <c r="O13">
-        <v>0.0321068268083063</v>
-      </c>
-      <c r="P13">
-        <v>0.0321068268083063</v>
-      </c>
-      <c r="Q13">
-        <v>0.1661046961559741</v>
-      </c>
-      <c r="R13">
-        <v>0.1661046961559741</v>
-      </c>
-      <c r="S13">
-        <v>0.00303740933171739</v>
-      </c>
-      <c r="T13">
-        <v>0.00303740933171739</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4233086666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.269926</v>
+      </c>
+      <c r="I16">
+        <v>0.1146722894880107</v>
+      </c>
+      <c r="J16">
+        <v>0.1146722894880108</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.70673666666667</v>
+      </c>
+      <c r="N16">
+        <v>32.12021</v>
+      </c>
+      <c r="O16">
+        <v>0.513166246835409</v>
+      </c>
+      <c r="P16">
+        <v>0.513166246835409</v>
+      </c>
+      <c r="Q16">
+        <v>4.532254422717777</v>
+      </c>
+      <c r="R16">
+        <v>40.79028980446</v>
+      </c>
+      <c r="S16">
+        <v>0.058845948412586</v>
+      </c>
+      <c r="T16">
+        <v>0.05884594841258601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4233086666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.269926</v>
+      </c>
+      <c r="I17">
+        <v>0.1146722894880107</v>
+      </c>
+      <c r="J17">
+        <v>0.1146722894880108</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7938190000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.381457</v>
+      </c>
+      <c r="O17">
+        <v>0.03804717810655387</v>
+      </c>
+      <c r="P17">
+        <v>0.03804717810655387</v>
+      </c>
+      <c r="Q17">
+        <v>0.3360304624646667</v>
+      </c>
+      <c r="R17">
+        <v>3.024274162182</v>
+      </c>
+      <c r="S17">
+        <v>0.00436295702203665</v>
+      </c>
+      <c r="T17">
+        <v>0.004362957022036651</v>
       </c>
     </row>
   </sheetData>
